--- a/inventory_2024_raw.xlsx
+++ b/inventory_2024_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/uni thea/AUB 24-25/Summer 25/MSBA390-Capstone/POS System app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BA0628E1-6978-FD49-884C-49CCDDCAAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8F8D1-40CA-1C47-9AA4-53B290967A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16460"/>
+    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory_2024_raw" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1077,10 +1077,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
